--- a/public/format_import_siswa.xlsx
+++ b/public/format_import_siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\jurnalpklsrv\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\stp2k\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA0E258-1633-4871-8859-189915B2A76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3900EA1F-7CB8-42E3-BBE5-C26D345FA9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73663314-A0BC-4D45-B5BE-33E615AD572F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73663314-A0BC-4D45-B5BE-33E615AD572F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>HAPUS BARIS PERTAMA SEBELUM IMPORT DATA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Nama Siswa</t>
   </si>
@@ -85,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,32 +107,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -166,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -175,8 +158,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -492,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A3EBAF-38FD-4F71-8019-18EF75A666E7}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,70 +488,66 @@
     <col min="4" max="4" width="43.5703125" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
